--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\chsucas060\users$\colin.fuerst\Eigene Dateien\Basislehrjahr\Projekt\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071DA9C-375B-4208-863F-65438CBFAAAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E933840C-F864-4CB7-9616-AC45C240BCCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Nr.</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t xml:space="preserve">Monitoringsystem 2.0 </t>
+  </si>
+  <si>
+    <t>19.12.</t>
+  </si>
+  <si>
+    <t>9.1.</t>
   </si>
 </sst>
 </file>
@@ -1611,10 +1617,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2122,7 +2128,9 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AT23" sqref="AT23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2998,7 +3006,7 @@
       <c r="AX12" s="60"/>
       <c r="AY12" s="61"/>
       <c r="AZ12" s="61"/>
-      <c r="BA12" s="63"/>
+      <c r="BA12" s="55"/>
       <c r="BB12" s="57"/>
       <c r="BC12" s="58"/>
       <c r="BD12" s="59"/>
@@ -3064,7 +3072,7 @@
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AT13" s="55"/>
+      <c r="AS13" s="87"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3077,7 +3085,7 @@
       <c r="BD13" s="59"/>
       <c r="BE13" s="60"/>
       <c r="BF13" s="55"/>
-      <c r="BG13" s="87"/>
+      <c r="BG13" s="55"/>
       <c r="BH13" s="55"/>
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
@@ -3095,7 +3103,7 @@
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3166,7 +3174,7 @@
       <c r="C15" s="49"/>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="89" t="s">
@@ -3174,9 +3182,15 @@
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="63"/>
+      <c r="I15" s="68">
+        <v>2</v>
+      </c>
+      <c r="J15" s="87">
+        <v>1</v>
+      </c>
+      <c r="K15" s="63">
+        <v>2</v>
+      </c>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
@@ -3382,7 +3396,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3455,7 +3469,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
@@ -3468,7 +3482,9 @@
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="63"/>
+      <c r="P19" s="63">
+        <v>1</v>
+      </c>
       <c r="Q19" s="55"/>
       <c r="R19" s="56"/>
       <c r="S19" s="57"/>
@@ -3530,8 +3546,12 @@
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="E20" s="50">
+        <v>1</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
@@ -3603,7 +3623,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="50">
+        <v>1</v>
+      </c>
       <c r="F21" s="52"/>
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
@@ -3676,8 +3698,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="50">
+        <v>1</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="59"/>
       <c r="H22" s="60"/>
       <c r="I22" s="55"/>
@@ -3749,7 +3775,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="50">
+        <v>2</v>
+      </c>
       <c r="F23" s="51"/>
       <c r="G23" s="59"/>
       <c r="H23" s="60"/>
@@ -3795,15 +3823,15 @@
       <c r="AV23" s="58"/>
       <c r="AW23" s="59"/>
       <c r="AX23" s="60"/>
-      <c r="AY23" s="63"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="63"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
       <c r="BB23" s="57"/>
       <c r="BC23" s="58"/>
       <c r="BD23" s="59"/>
       <c r="BE23" s="60"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="87"/>
+      <c r="BF23" s="55"/>
+      <c r="BG23" s="55"/>
       <c r="BH23" s="56"/>
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
@@ -3822,7 +3850,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="50">
+        <v>2</v>
+      </c>
       <c r="F24" s="51"/>
       <c r="G24" s="59"/>
       <c r="H24" s="60"/>
@@ -3870,12 +3900,12 @@
       <c r="AX24" s="60"/>
       <c r="AY24" s="55"/>
       <c r="AZ24" s="55"/>
-      <c r="BA24" s="63"/>
+      <c r="BA24" s="55"/>
       <c r="BB24" s="57"/>
       <c r="BC24" s="58"/>
       <c r="BD24" s="59"/>
       <c r="BE24" s="60"/>
-      <c r="BF24" s="63"/>
+      <c r="BF24" s="55"/>
       <c r="BG24" s="55"/>
       <c r="BH24" s="56"/>
       <c r="BI24" s="57"/>
@@ -5177,7 +5207,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5191,15 +5221,15 @@
       </c>
       <c r="I43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5219,7 +5249,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5492,7 +5522,7 @@
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
@@ -5509,7 +5539,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E933840C-F864-4CB7-9616-AC45C240BCCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6120F6-D63B-451D-A9F4-8467404E656F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,7 +1620,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT23" sqref="AT23"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3562,7 +3562,9 @@
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
       <c r="P20" s="55"/>
-      <c r="Q20" s="63"/>
+      <c r="Q20" s="63">
+        <v>5</v>
+      </c>
       <c r="R20" s="63"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -5207,7 +5209,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5253,7 +5255,7 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
@@ -5539,7 +5541,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6120F6-D63B-451D-A9F4-8467404E656F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88DCB5-5497-4451-A760-7EC871F6181A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Nr.</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>9.1.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1623,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2129,7 +2132,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3396,7 +3399,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3544,7 +3547,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3565,7 +3568,9 @@
       <c r="Q20" s="63">
         <v>5</v>
       </c>
-      <c r="R20" s="63"/>
+      <c r="R20" s="63">
+        <v>2</v>
+      </c>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
@@ -3723,7 +3728,9 @@
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
       <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
+      <c r="X22" s="55" t="s">
+        <v>62</v>
+      </c>
       <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
@@ -3798,7 +3805,9 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
+      <c r="X23" s="61" t="s">
+        <v>62</v>
+      </c>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
@@ -5209,7 +5218,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5259,7 +5268,7 @@
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -5541,7 +5550,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88DCB5-5497-4451-A760-7EC871F6181A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D45A29-B3A2-4C91-AD15-446BD74E1C2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D45A29-B3A2-4C91-AD15-446BD74E1C2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D20ACF-C2D1-4B37-B798-85527AC517A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1623,7 +1623,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3575,8 +3575,6 @@
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="55"/>
       <c r="Y20" s="56"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
@@ -3628,7 +3626,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3650,8 +3648,10 @@
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="63"/>
+      <c r="W21" s="63">
+        <v>8</v>
+      </c>
+      <c r="X21" s="87"/>
       <c r="Y21" s="63"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D20ACF-C2D1-4B37-B798-85527AC517A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270BF02-9111-4D55-8C03-A79B5A455215}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1623,7 +1623,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3575,6 +3575,8 @@
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
       <c r="Y20" s="56"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
@@ -3626,7 +3628,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3651,7 +3653,9 @@
       <c r="W21" s="63">
         <v>8</v>
       </c>
-      <c r="X21" s="87"/>
+      <c r="X21" s="87">
+        <v>6</v>
+      </c>
       <c r="Y21" s="63"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
@@ -5218,7 +5222,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5292,7 +5296,7 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
@@ -5550,7 +5554,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270BF02-9111-4D55-8C03-A79B5A455215}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB94B45-763B-46C4-8511-CD779C98EE81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1623,7 +1623,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+      <selection activeCell="AA26" sqref="AA26:AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3651,12 +3651,11 @@
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
       <c r="W21" s="63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X21" s="87">
-        <v>6</v>
-      </c>
-      <c r="Y21" s="63"/>
+        <v>5</v>
+      </c>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="59"/>
@@ -3707,7 +3706,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3735,7 +3734,9 @@
       <c r="X22" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="Y22" s="56"/>
+      <c r="Y22" s="63">
+        <v>5</v>
+      </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="59"/>
@@ -5222,7 +5223,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5292,15 +5293,15 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5554,7 +5555,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB94B45-763B-46C4-8511-CD779C98EE81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70AAD6-086D-4110-ABA9-64FF8000E0A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1623,7 +1623,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26:AB26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
@@ -3486,7 +3486,7 @@
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
       <c r="P19" s="63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="55"/>
       <c r="R19" s="56"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3651,10 +3651,10 @@
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
       <c r="W21" s="63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X21" s="87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>62</v>
       </c>
       <c r="Y22" s="63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5293,15 +5293,15 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GutHub\.git\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70AAD6-086D-4110-ABA9-64FF8000E0A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A031193B-F1B3-460B-A4DA-3D1EAF95E71C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12430" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,12 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1111,7 +1105,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1393,22 +1387,18 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1490,7 +1480,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2888285119532066E-2"/>
+          <c:y val="5.8784472062072261E-2"/>
+          <c:w val="0.84659108450726928"/>
+          <c:h val="0.84636639272165226"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1546,7 +1546,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50</c:v>
@@ -1617,16 +1617,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1731,7 +1731,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1740,16 +1740,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>916078</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30444</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>69476</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2251,7 +2251,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="23" t="s">
         <v>37</v>
       </c>
@@ -2451,88 +2451,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="91" t="s">
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="91" t="s">
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93" t="s">
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="91" t="s">
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="93" t="s">
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="90"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="91" t="s">
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="91"/>
-      <c r="AZ7" s="91"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="93" t="s">
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="91"/>
+      <c r="BD7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="94"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="90"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="93"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2808,14 +2808,14 @@
       <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="87" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="87"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="57"/>
       <c r="M10" s="58"/>
       <c r="N10" s="53"/>
@@ -2888,7 +2888,7 @@
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
-      <c r="K11" s="85"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="62"/>
       <c r="M11" s="58" t="s">
         <v>5</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="D12" s="83">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -2967,21 +2967,25 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="63">
+        <v>1</v>
+      </c>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
       <c r="U12" s="59"/>
       <c r="V12" s="60"/>
       <c r="W12" s="61"/>
       <c r="X12" s="61"/>
-      <c r="Y12" s="63"/>
+      <c r="Y12" s="63">
+        <v>1</v>
+      </c>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
       <c r="AB12" s="59"/>
@@ -3002,7 +3006,9 @@
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
       <c r="AS12" s="61"/>
-      <c r="AT12" s="63"/>
+      <c r="AT12" s="63">
+        <v>1</v>
+      </c>
       <c r="AU12" s="57"/>
       <c r="AV12" s="58"/>
       <c r="AW12" s="59"/>
@@ -3034,14 +3040,14 @@
       <c r="E13" s="50">
         <v>1</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="87" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="64"/>
       <c r="M13" s="65"/>
       <c r="N13" s="59"/>
@@ -3075,7 +3081,7 @@
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
-      <c r="AS13" s="87"/>
+      <c r="AS13" s="86"/>
       <c r="AU13" s="66"/>
       <c r="AV13" s="67"/>
       <c r="AW13" s="59"/>
@@ -3102,11 +3108,11 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3174,31 +3180,31 @@
       <c r="B15" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="49">
+        <v>9</v>
+      </c>
       <c r="D15" s="83">
         <f>SUM(G15:BJ15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="50"/>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="88" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="68">
-        <v>2</v>
-      </c>
-      <c r="J15" s="87">
-        <v>1</v>
-      </c>
-      <c r="K15" s="63">
-        <v>2</v>
-      </c>
+      <c r="I15" s="68"/>
+      <c r="J15" s="86">
+        <v>3</v>
+      </c>
+      <c r="K15" s="22"/>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
       <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
+      <c r="P15" s="63">
+        <v>3</v>
+      </c>
       <c r="Q15" s="55"/>
       <c r="R15" s="56"/>
       <c r="S15" s="57"/>
@@ -3253,18 +3259,24 @@
       <c r="B16" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="49">
+        <v>5</v>
+      </c>
       <c r="D16" s="83">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="I16" s="68">
+        <v>1</v>
+      </c>
+      <c r="J16" s="68">
+        <v>2</v>
+      </c>
+      <c r="K16" s="22"/>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
@@ -3333,7 +3345,7 @@
       <c r="H17" s="70"/>
       <c r="I17" s="55"/>
       <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="57"/>
       <c r="M17" s="58"/>
       <c r="N17" s="69"/>
@@ -3399,7 +3411,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3472,22 +3484,24 @@
       </c>
       <c r="D19" s="83">
         <f>SUM(G19:BJ19)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="I19" s="63">
+        <v>5</v>
+      </c>
+      <c r="J19" s="63">
+        <v>2</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="63">
-        <v>2</v>
-      </c>
+      <c r="P19" s="55"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="56"/>
       <c r="S19" s="57"/>
@@ -3547,7 +3561,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3564,12 +3578,11 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="55"/>
+      <c r="P20" s="63">
+        <v>5</v>
+      </c>
       <c r="Q20" s="63">
-        <v>5</v>
-      </c>
-      <c r="R20" s="63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3628,7 +3641,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3645,16 +3658,21 @@
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
+      <c r="R21" s="63">
+        <v>7</v>
+      </c>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
       <c r="W21" s="63">
+        <v>6</v>
+      </c>
+      <c r="X21" s="86">
         <v>7</v>
       </c>
-      <c r="X21" s="87">
-        <v>7</v>
+      <c r="Y21" s="63">
+        <v>1</v>
       </c>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
@@ -3706,7 +3724,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3735,7 +3753,7 @@
         <v>62</v>
       </c>
       <c r="Y22" s="63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
@@ -3755,7 +3773,9 @@
       <c r="AO22" s="58"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
-      <c r="AR22" s="87"/>
+      <c r="AR22" s="86">
+        <v>8</v>
+      </c>
       <c r="AS22" s="55"/>
       <c r="AT22" s="56"/>
       <c r="AU22" s="57"/>
@@ -3787,7 +3807,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" s="50">
         <v>2</v>
@@ -3833,8 +3853,12 @@
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="55"/>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="63"/>
+      <c r="AS23" s="63">
+        <v>3</v>
+      </c>
+      <c r="AT23" s="63">
+        <v>3</v>
+      </c>
       <c r="AU23" s="57"/>
       <c r="AV23" s="58"/>
       <c r="AW23" s="59"/>
@@ -4364,7 +4388,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4445,7 +4469,7 @@
       <c r="H32" s="54"/>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
+      <c r="K32" s="22"/>
       <c r="L32" s="57"/>
       <c r="M32" s="58"/>
       <c r="N32" s="53"/>
@@ -4479,7 +4503,9 @@
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="55"/>
-      <c r="AS32" s="63"/>
+      <c r="AS32" s="63">
+        <v>0</v>
+      </c>
       <c r="AT32" s="55"/>
       <c r="AU32" s="57"/>
       <c r="AV32" s="58"/>
@@ -4510,7 +4536,7 @@
       </c>
       <c r="D33" s="83">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4518,7 +4544,7 @@
       <c r="H33" s="60"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
-      <c r="K33" s="56"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="57"/>
       <c r="M33" s="58"/>
       <c r="N33" s="59"/>
@@ -4552,8 +4578,12 @@
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
       <c r="AR33" s="55"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="87"/>
+      <c r="AS33" s="63">
+        <v>5</v>
+      </c>
+      <c r="AT33" s="86">
+        <v>6</v>
+      </c>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -4591,7 +4621,7 @@
       <c r="H34" s="60"/>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
-      <c r="K34" s="56"/>
+      <c r="K34" s="22"/>
       <c r="L34" s="57"/>
       <c r="M34" s="58"/>
       <c r="N34" s="59"/>
@@ -4625,8 +4655,10 @@
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
       <c r="AR34" s="55"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
+      <c r="AS34" s="63">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="86"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
       <c r="AW34" s="59"/>
@@ -4660,7 +4692,7 @@
       <c r="H35" s="70"/>
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
+      <c r="K35" s="22"/>
       <c r="L35" s="57"/>
       <c r="M35" s="58"/>
       <c r="N35" s="69"/>
@@ -4805,7 +4837,7 @@
       <c r="H37" s="54"/>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="57"/>
       <c r="M37" s="58"/>
       <c r="N37" s="53"/>
@@ -4874,7 +4906,7 @@
       <c r="H38" s="70"/>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="57"/>
       <c r="M38" s="58"/>
       <c r="N38" s="69"/>
@@ -5019,7 +5051,7 @@
       <c r="H40" s="54"/>
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
+      <c r="K40" s="22"/>
       <c r="L40" s="57"/>
       <c r="M40" s="58"/>
       <c r="N40" s="53"/>
@@ -5090,7 +5122,7 @@
       <c r="H41" s="60"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
-      <c r="K41" s="56"/>
+      <c r="K41" s="22"/>
       <c r="L41" s="57"/>
       <c r="M41" s="58"/>
       <c r="N41" s="59"/>
@@ -5159,7 +5191,7 @@
       <c r="H42" s="70"/>
       <c r="I42" s="55"/>
       <c r="J42" s="55"/>
-      <c r="K42" s="56"/>
+      <c r="K42" s="22"/>
       <c r="L42" s="57"/>
       <c r="M42" s="58"/>
       <c r="N42" s="69"/>
@@ -5219,11 +5251,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5237,15 +5269,15 @@
       </c>
       <c r="I43" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J43" s="39">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5265,15 +5297,15 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -5293,7 +5325,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -5301,7 +5333,7 @@
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5377,15 +5409,15 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="4"/>
@@ -5483,8 +5515,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5498,10 +5530,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="98"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5510,78 +5542,78 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="95" t="str">
+      <c r="A3" s="94" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>5</v>
       </c>
       <c r="D3" s="80">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="82"/>
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="95" t="str">
+      <c r="A4" s="94" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="80">
         <f>Zeitplanung!D14</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="95" t="str">
+      <c r="A5" s="94" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
         <v>50</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="95" t="str">
+      <c r="A6" s="94" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>14</v>
       </c>
       <c r="D6" s="80">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="95" t="str">
+      <c r="A7" s="94" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5593,11 +5625,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="95" t="str">
+      <c r="A8" s="94" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>0</v>
@@ -5620,7 +5652,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>